--- a/biology/Botanique/Pavie_(fruit)/Pavie_(fruit).xlsx
+++ b/biology/Botanique/Pavie_(fruit)/Pavie_(fruit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pavie est une variété de pêches (Prunus persica var. persica Batsch) à peau duveteuse et noyau adhérent à la chair. Elle est le fruit du pêcher de Pavie, dont le nom vient de Pavie, commune française du Gers.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pavie est originaire du sud-ouest de la France.
 </t>
@@ -542,9 +556,11 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le fruit peut prendre différentes formes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le fruit peut prendre différentes formes :
 Babygold, à chair jaune.
 Millacoton de septembre, de forme ronde, à peau crème, avec coup de soleil sur le côté exposé, chair dense, maturité mi-septembre.
 Pavie de Touraine, gros fruit à chair blanche, ferme, rustique, maturité fin septembre, utilisé pour faire des conserves.
